--- a/job_info_gpt3_50.xlsx
+++ b/job_info_gpt3_50.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28004"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1226,7 +1242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1608,19 +1624,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="128.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="128.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1690,7 +1706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1830,7 +1846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1900,7 +1916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1935,7 +1951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1970,7 +1986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2005,7 +2021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -2040,7 +2056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -2075,7 +2091,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -2110,7 +2126,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -2180,7 +2196,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -2215,7 +2231,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2250,7 +2266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -2387,7 +2403,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -2422,7 +2438,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -2457,7 +2473,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -2527,7 +2543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -2562,7 +2578,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -2597,7 +2613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -2632,7 +2648,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -2667,7 +2683,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2702,7 +2718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>257</v>
       </c>
@@ -2737,7 +2753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -2772,7 +2788,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>257</v>
       </c>
@@ -2807,7 +2823,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>274</v>
       </c>
@@ -2842,7 +2858,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>282</v>
       </c>
@@ -2877,7 +2893,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>291</v>
       </c>
@@ -2912,7 +2928,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>298</v>
       </c>
@@ -2947,7 +2963,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2982,7 +2998,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>291</v>
       </c>
@@ -3017,7 +3033,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>319</v>
       </c>
@@ -3052,7 +3068,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>326</v>
       </c>
@@ -3087,7 +3103,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>334</v>
       </c>
@@ -3122,7 +3138,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3173,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>348</v>
       </c>
@@ -3192,7 +3208,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>356</v>
       </c>
@@ -3227,7 +3243,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>364</v>
       </c>
@@ -3262,7 +3278,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -3297,7 +3313,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>378</v>
       </c>
@@ -3332,7 +3348,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3367,7 +3383,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>392</v>
       </c>

--- a/job_info_gpt3_50.xlsx
+++ b/job_info_gpt3_50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AC2BC-787B-4D60-97D2-9D2474B36172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B79AC2BC-787B-4D60-97D2-9D2474B36172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E5755D-DFBD-4345-AC86-968F55C815C1}"/>
   <bookViews>
     <workbookView xWindow="-36" yWindow="72" windowWidth="11700" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="401">
   <si>
     <t>Empresa</t>
   </si>
@@ -224,7 +224,7 @@
     <t>Estudantes de tecnologia da informação</t>
   </si>
   <si>
-    <t>Desenvolvimento de software e projetos de sistemas</t>
+    <t>Desenvolvimento de software, projetos de sistemas</t>
   </si>
   <si>
     <t>Apoio na entrega de produtos de software, Aplicação de melhorias técnicas, Gestão de fornecedores externos</t>
@@ -698,7 +698,7 @@
     <t>Estudantes de nível superior com formação prevista após julho de 2025 e disponibilidade para estagiar em São Paulo, com acesso à região da Vila Olímpia.</t>
   </si>
   <si>
-    <t>Administração Financeira e Expansão de Lojas</t>
+    <t>Administração Financeira,Expansão de Lojas</t>
   </si>
   <si>
     <t>Auxiliar nas rotinas administrativas e financeiras, controle de pagamentos, conferência de dados financeiros, análise de desempenho financeiro dos contratos, cumprimento dos fluxos de procedimentos administrativos e financeiros, suporte nas atividades da área.</t>
@@ -821,7 +821,7 @@
     <t>Summer Interns e Interns</t>
   </si>
   <si>
-    <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
+    <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing, Vendas, Serviços Transacionais, Operações e Organizações</t>
   </si>
   <si>
     <t>Compor o time, participar dos Webinars, realizar provas.</t>
@@ -854,6 +854,9 @@
     <t>candidatura simplificada, carreira desafiadora, alta energia</t>
   </si>
   <si>
+    <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing,  Vendas, Serviços Transacionais, Operações e Organizações</t>
+  </si>
+  <si>
     <t>Compor o time, participar dos Webinars e provas.</t>
   </si>
   <si>
@@ -902,7 +905,7 @@
     <t>Estudantes de graduação</t>
   </si>
   <si>
-    <t>Macroecomonmia/Tesouraria</t>
+    <t>Macroeconomia,Tesouraria</t>
   </si>
   <si>
     <t>Construção e manutenção de base de dados e modelos econométricos, auxílio em análises para as mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatização de rotinas, planilhas e apresentações do departamento econômico e da tesouraria.</t>
@@ -923,7 +926,7 @@
     <t>Bolsa auxílio, Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte ou transporte fornecido pela empresa, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
   </si>
   <si>
-    <t>Backoffice, Novos Negócios e Portfólio</t>
+    <t>Backoffice, Novos Negócios,Portfólio</t>
   </si>
   <si>
     <t>Desenvolver habilidades importantes, vivenciar o dia a dia do negócio da empresa, colaborar de forma inovadora e resiliente.</t>
@@ -1205,7 +1208,7 @@
     <t>Estudantes com formação prevista para a partir de 2025/2</t>
   </si>
   <si>
-    <t>Engenharia, Automação, Desenvolvimento de Software, TI Industrial e Consultoria</t>
+    <t>Engenharia, Automação, Desenvolvimento de Software, TI Industrial, Consultoria</t>
   </si>
   <si>
     <t>Apoio em mapeamento e prospecção de oportunidades, pesquisas de mercado, elaboração de propostas técnicas-comerciais, acompanhamento de equipe técnica, representação da empresa em reuniões, apoio na construção de propostas comerciais e orçamentárias, elaboração de materiais de divulgação.</t>
@@ -1620,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1634,6 +1637,7 @@
     <col min="6" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="128.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2814,27 +2818,27 @@
         <v>260</v>
       </c>
       <c r="I34" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
         <v>24</v>
@@ -2843,59 +2847,59 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
         <v>178</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -2904,63 +2908,63 @@
         <v>178</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E37" t="s">
         <v>144</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H37" t="s">
         <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
         <v>178</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2968,13 +2972,13 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
         <v>144</v>
@@ -2983,68 +2987,68 @@
         <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E40" t="s">
         <v>144</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H40" t="s">
         <v>88</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
         <v>178</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
@@ -3056,30 +3060,30 @@
         <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C42" t="s">
         <v>178</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -3088,33 +3092,33 @@
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" t="s">
         <v>159</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
@@ -3123,19 +3127,19 @@
         <v>16</v>
       </c>
       <c r="G43" t="s">
+        <v>338</v>
+      </c>
+      <c r="H43" t="s">
         <v>337</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>336</v>
       </c>
-      <c r="I43" t="s">
-        <v>335</v>
-      </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3143,48 +3147,48 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
         <v>24</v>
@@ -3193,33 +3197,33 @@
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H45" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E46" t="s">
         <v>24</v>
@@ -3228,54 +3232,54 @@
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3283,13 +3287,13 @@
         <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E48" t="s">
         <v>24</v>
@@ -3304,27 +3308,27 @@
         <v>129</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
@@ -3333,19 +3337,19 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H49" t="s">
         <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J49" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3353,13 +3357,13 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E50" t="s">
         <v>24</v>
@@ -3368,33 +3372,33 @@
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H50" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E51" t="s">
         <v>24</v>
@@ -3403,19 +3407,19 @@
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H51" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
